--- a/Visual/Visual.xlsx
+++ b/Visual/Visual.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ORDEM DE PRODUÇÃO</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>CRACHÁ</t>
+  </si>
+  <si>
+    <t>SENHA</t>
+  </si>
+  <si>
+    <t>TESTE</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,6 @@
       <sheetName val="db"/>
       <sheetName val="mq_db"/>
       <sheetName val="Document"/>
-      <sheetName val="apontador"/>
     </sheetNames>
     <definedNames>
       <definedName name="botao"/>
@@ -304,7 +309,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -574,10 +578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="J6:O10"/>
+  <dimension ref="F6:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +594,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:15" x14ac:dyDescent="0.25">
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,23 +602,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="10:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="10:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="10:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="6:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="10:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="3"/>
     </row>
+    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4oO0M9iBfhMG+RgFWqSuKOQa8ezRDC10qc5dN1MweA5m7OPaM3yd+L+80BAC6M/c/IwiVnzuLlK9jwiDTg/S3g==" saltValue="YLS6ooLk4uQK6AR/BzH2aQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6gAjqYcjivDBJqsqtqXz/SvJm+0KyOl2CjuoNK85v+zOPSDfX1zhVU/nK7yKdNgGIVtCovhBIRJSaIWCaMKu6Q==" saltValue="3EDbXcGxVDeJLyr8qQu7og==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <dataValidations count="1">
     <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="NÚMERO INVÁLIDO" error="NÚMERO DE ORDEM DE PRODUÇÃO INVÁLIDO" promptTitle="a" prompt="s" sqref="J7">
       <formula1>7</formula1>
@@ -658,7 +672,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MÁQUINA INVÁLIDA" error="SELECIONE UMA DAS MÁQUINAS DA LISTA">
           <x14:formula1>
-            <xm:f>'C:\Users\Rafa\Documents\ApontamentoProd\[apontador.xlsm]mq_db'!#REF!</xm:f>
+            <xm:f>[apontador.xlsm]mq_db!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>L7</xm:sqref>
         </x14:dataValidation>

--- a/Visual/Visual.xlsx
+++ b/Visual/Visual.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="ApontaOP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,23 +29,23 @@
     <t>ORDEM DE PRODUÇÃO</t>
   </si>
   <si>
-    <t>MÁQUINA</t>
-  </si>
-  <si>
-    <t>CRACHÁ</t>
-  </si>
-  <si>
     <t>SENHA</t>
   </si>
   <si>
     <t>TESTE</t>
+  </si>
+  <si>
+    <t>MÁQUINA</t>
+  </si>
+  <si>
+    <t>OPERADOR(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,17 +54,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -78,14 +69,146 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,8 +231,187 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -128,25 +430,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="21" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="24" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="27" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="30" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="33" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="22" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="25" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="36"/>
+    <cellStyle name="60% - Accent2 2" xfId="37"/>
+    <cellStyle name="60% - Accent3 2" xfId="38"/>
+    <cellStyle name="60% - Accent4 2" xfId="39"/>
+    <cellStyle name="60% - Accent5 2" xfId="40"/>
+    <cellStyle name="60% - Accent6 2" xfId="41"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="26" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="29" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="32" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -163,6 +655,22 @@
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -287,31 +795,329 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>2152650</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>676275</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Group Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>GRUPO DE MÁQUINAS</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1219200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>2047875</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Option Button 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>MUC - FINAL</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1304925</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Option Button 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>MUC - PROCESSO</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>771525</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1600200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>628650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Option Button 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>MRFR</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ApontaOP"/>
-      <sheetName val="Registros"/>
-      <sheetName val="db"/>
-      <sheetName val="mq_db"/>
-      <sheetName val="Document"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="botao"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,7 +1384,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="F6:O13"/>
+  <dimension ref="F2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
@@ -594,46 +1400,65 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
     <row r="6" spans="6:15" x14ac:dyDescent="0.25">
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="6:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="O7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="6:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="6:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J9" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="6:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="12" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6gAjqYcjivDBJqsqtqXz/SvJm+0KyOl2CjuoNK85v+zOPSDfX1zhVU/nK7yKdNgGIVtCovhBIRJSaIWCaMKu6Q==" saltValue="3EDbXcGxVDeJLyr8qQu7og==" spinCount="100000" sheet="1" selectLockedCells="1"/>
-  <dataValidations count="1">
+  <sheetProtection algorithmName="SHA-512" hashValue="iOdBBkTenTwTDL1oa5eB7fL7KrZW3H4m8adLVc2zfftAkrwLQfXF6wim8ER9FiH84IrfRq1ENzlSpDLRsD8zGg==" saltValue="hrZE/QGnBezyg68UBOq4Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <dataConsolidate/>
+  <dataValidations count="2">
     <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="NÚMERO INVÁLIDO" error="NÚMERO DE ORDEM DE PRODUÇÃO INVÁLIDO" promptTitle="a" prompt="s" sqref="J7">
       <formula1>7</formula1>
       <formula2>8</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MÁQUINA INVÁLIDA" error="SELECIONE UMA DAS MÁQUINAS DA LISTA" sqref="L7"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -645,7 +1470,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1025" r:id="rId4" name="Button 1">
-              <controlPr locked="0" defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!botao">
+              <controlPr locked="0" defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!botao">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
@@ -664,17 +1489,105 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId5" name="Group Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>2152650</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>676275</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId6" name="Option Button 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!MUC2_FINAL">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>1219200</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>2047875</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId7" name="Option Button 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!MUC2_PROC">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>1304925</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId8" name="Option Button 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!MRFR">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>771525</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>1600200</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>628650</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MÁQUINA INVÁLIDA" error="SELECIONE UMA DAS MÁQUINAS DA LISTA">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[apontador.xlsm]mq_db!#REF!</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>L7</xm:sqref>
+          <xm:sqref>L10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
